--- a/input_output_yurtici_2022_Turkiye_v03.xlsx
+++ b/input_output_yurtici_2022_Turkiye_v03.xlsx
@@ -4009,8 +4009,8 @@
   </sheetPr>
   <dimension ref="A1:CO94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BG58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:CC89"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
